--- a/Requisitos/sprint_backlog.xlsx
+++ b/Requisitos/sprint_backlog.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PI\grupo9-ads\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C554939-EDFF-4FCB-8107-E0F56B8BF959}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{2C554939-EDFF-4FCB-8107-E0F56B8BF959}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{132C3D3D-3674-43EB-A21C-CC19F8E45571}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A90F90B7-2BD4-4ACC-A763-BC89419FD4DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint Backlog 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+  <si>
+    <t>(em dias)</t>
+  </si>
   <si>
     <t>Item</t>
   </si>
@@ -57,14 +60,89 @@
     <t>Deve ter um documento explicando o contexto</t>
   </si>
   <si>
-    <t>(em dias)</t>
+    <t>Fazer Pesquisas em Torno do tema</t>
+  </si>
+  <si>
+    <t>Feito</t>
+  </si>
+  <si>
+    <t>Definir tópicos para montar o texto</t>
+  </si>
+  <si>
+    <t>Atrasado</t>
+  </si>
+  <si>
+    <t>Fazer a montagem do texto</t>
+  </si>
+  <si>
+    <t>Fazendo</t>
+  </si>
+  <si>
+    <t>Deve ter um documento explicando a Justificativa Econômica</t>
+  </si>
+  <si>
+    <t>Fazer pesquisas em torno do tema</t>
+  </si>
+  <si>
+    <t>Montar o Texto</t>
+  </si>
+  <si>
+    <t>Checkagem em Equipe</t>
+  </si>
+  <si>
+    <t>A solução deve ser desenhada para melhor entendimento</t>
+  </si>
+  <si>
+    <t>Montar o desenho de solição</t>
+  </si>
+  <si>
+    <t>Deve ter uma tela que calcule os ganhos monetários</t>
+  </si>
+  <si>
+    <t>Fazer Pesquisas para definir os tipos de vacinas que utilizaremos</t>
+  </si>
+  <si>
+    <t>Montar o frontend </t>
+  </si>
+  <si>
+    <t>Configurar css</t>
+  </si>
+  <si>
+    <t>Programar o cálculo em JavaS</t>
+  </si>
+  <si>
+    <t>Deve ter uma tela inicial</t>
+  </si>
+  <si>
+    <t>É necessário uma tela de login</t>
+  </si>
+  <si>
+    <t>Deve ter uma tela para Controle, Gráficos e Consultas</t>
+  </si>
+  <si>
+    <t>É necessário uma tela sobra a empresa</t>
+  </si>
+  <si>
+    <t>É importante uma tela da ouvidoria para esclarecimento de produtos</t>
+  </si>
+  <si>
+    <t>Ter um banco de dados em nuvem</t>
+  </si>
+  <si>
+    <t>Fazer a Modelagem Conceitual</t>
+  </si>
+  <si>
+    <t>Fazer a Modelagem Lógica</t>
+  </si>
+  <si>
+    <t>Fazer o Script</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +158,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +176,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -122,17 +225,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -152,7 +276,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -448,15 +572,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C09F6E-2B07-4C43-9A3D-06F30BA3B90A}">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0" xr3:uid="{248AA16A-739F-52F9-8E32-90B8253D3BA1}">
+      <selection activeCell="E22" sqref="E22:G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" style="7" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="2.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" customWidth="1"/>
@@ -466,256 +590,622 @@
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="C1"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+    </row>
+    <row r="3" spans="1:31" ht="30" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-    </row>
-    <row r="3" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="B3" s="11">
         <v>100</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12"/>
       <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="30" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="11">
+        <v>100</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+    <row r="8" spans="1:31">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:31">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+    <row r="10" spans="1:31" ht="30">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4">
+        <v>90</v>
+      </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
+    <row r="11" spans="1:31" ht="30">
+      <c r="A11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11">
+        <v>50</v>
+      </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
+    <row r="12" spans="1:31">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
+    <row r="13" spans="1:31">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:31">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
+    <row r="15" spans="1:31">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="11">
+        <v>90</v>
+      </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+    <row r="16" spans="1:31">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="11">
+        <v>100</v>
+      </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
+    <row r="21" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="11">
+        <v>100</v>
+      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="D22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="D23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="11">
+        <v>30</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="11">
+        <v>20</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="11">
+        <v>100</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="19">
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
